--- a/학습자료/단답형/객관식_한국사_대조_국가 구분.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_국가 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>수도 5부, 지방 5부
-1. 고구려
-2. 신라
-3. 통일신라</t>
+1. 고려
+2. 고구려
+3. 신라</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 고구려</t>
+          <t>2, 고구려</t>
         </is>
       </c>
     </row>
@@ -466,498 +466,680 @@
           <t>대성 - 욕살
 성 - 처려근지, 도사
 말단 - 촌
+1. 발해
+2. 고려
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>특수 행정 구역 - 3경(평양성, 국내성, 한성)
+1. 발해
+2. 백제
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>전문 군관 존재
+1. 통일신라
+2. 고구려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>유사시 대모달, 말객 지휘
+1. 고구려
+2. 발해
+3. 통일신라</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>욕살이 지방군 통솔
+1. 통일신라
+2. 고구려
+3. 백제</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>수도 5부, 지방 5방
 1. 고구려
 2. 통일신라
 3. 백제</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>특수 행정 구역 - 3경(평양성, 국내성, 한성)
-1. 신라
-2. 고구려
-3. 백제</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>전문 군관 존재
-1. 고구려
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>방 - 방령
+군 - 군장
+1. 발해
+2. 백제
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>특수 행정 구역 - 22담로
+1. 백제
+2. 발해
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>방령이 군사 거느림
+1. 통일신라
 2. 발해
 3. 백제</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>방령이 달솔 임명
+1. 발해
+2. 백제
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>수도 6부, 지방 5주
+1. 신라
+2. 통일신라
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>주 - 군주
+군 - 당주
+말단 - 촌
+1. 백제
+2. 신라
+3. 발해</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>특수 행정 구역 - 소경(2소경, 사신 파견)
+1. 신라
+2. 발해
+3. 백제</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>아시촌 소경
+1. 통일신라
+2. 발해
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>군주가 정을 거느림
+1. 발해
+2. 고구려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>당주가 부대인 정 통솔
+1. 신라
+2. 통일신라
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>중앙 특수 부대(서당, 사자대)
+1. 신라
+2. 통일신라
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>수도 방위 : 위병
+1. 백제
+2. 발해
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10여관등 → 14관등
+1. 백제
+2. 고구려
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>제가 회의
+1. 고구려
+2. 백제
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>1, 고구려</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>유사시 대모달, 말객 지휘
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6좌평 16관등
 1. 고구려
 2. 백제
 3. 통일신라</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>욕살이 지방군 통솔
-1. 통일신라
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>내관 12부, 외관 10부
+1. 발해
+2. 통일신라
+3. 백제</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22부
+1. 백제
+2. 고구려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 백제</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>자색, 비색, 청색
+1. 고려
 2. 백제
 3. 고구려</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>수도 5부, 지방 5방
-1. 백제
-2. 발해
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>방 - 방령
-군 - 군장
-1. 고구려
-2. 백제
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2, 백제</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>특수 행정 구역 - 22담로
-1. 발해
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>정사암 회의
+1. 고려
 2. 백제
 3. 고구려</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2, 백제</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>방령이 군사 거느림
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17관등제
+1. 신라
+2. 고구려
+3. 발해</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>상대등
+1. 고구려
+2. 고려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>골품 제도
+1. 고구려
+2. 신라
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>화백 회의
+1. 고려
+2. 고구려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>9주 5소경
+1. 고구려
+2. 발해
+3. 통일신라</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 통일신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>9서당 10정
 1. 고구려
 2. 통일신라
 3. 백제</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>방령이 달솔 임명
-1. 고구려
-2. 발해
-3. 백제</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>수도 6부, 지방 5주
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 통일신라</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5경 15부 62주
+1. 발해
+2. 통일신라
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 발해</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>부 - 도독
+주 - 자사
+1. 통일신라
+2. 고구려
+3. 발해</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 발해</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5도에 안찰사 파견, 주, 군, 현 설치 후 지방관 파견
 1. 백제
-2. 신라
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>주 - 군주
-군 - 당주
-말단 - 촌
-1. 통일신라
-2. 신라
+2. 고려
 3. 발해</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>특수 행정 구역 - 소경(2소경, 사신 파견)
-1. 고구려
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>양계에 병마사를 파견, 국방상 요충지에 진을 설치
+1. 고려
 2. 통일신라
-3. 신라</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>아시촌 소경
-1. 백제
-2. 신라
-3. 발해</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>군주가 정을 거느림
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3경을 설치 : 개경, 서경, 동경 -&gt; 개경, 서경, 남경
 1. 백제
 2. 발해
-3. 신라</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>당주가 부대인 정 통솔
-1. 신라
-2. 백제
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4도호부 8목
+1. 고려
+2. 고구려
 3. 발해</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>중앙 특수 부대(서당, 사자대)
-1. 신라
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3경 - 유수
+8목 - 목사
+4도호부 - 도호부사
+1. 고구려
+2. 고려
+3. 백제</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>주현에 지방관 파견, 속현은 향리가 지배
+1. 고구려
+2. 신라
+3. 고려</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>향, 부곡, 소 존재
+1. 고려
 2. 통일신라
 3. 발해</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>수도 방위 : 위병
-1. 신라
-2. 통일신라
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>호장, 부호장을 두었다
+1. 발해
+2. 고려
+3. 통일신라</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>국왕의 친위 부대인 2군과 수도 경비 및 국경 방어를 담당하는 6위가 존재하였다
+1. 고구려
+2. 고려
 3. 백제</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>10여관등 → 14관등
-1. 통일신라
-2. 백제
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>제가 회의
-1. 통일신라
-2. 백제
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>6좌평 16관등
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>응양군, 용호군
 1. 발해
-2. 백제
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>내관 12부, 외관 10부
+2. 고려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>좌우위, 신호위, 흥위위
+1. 백제
+2. 고려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>감문위, 금오위, 천우위
 1. 고구려
-2. 신라
-3. 백제</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>22부
-1. 발해
-2. 통일신라
-3. 백제</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>자색, 비색, 청색
-1. 통일신라
-2. 발해
-3. 백제</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>정사암 회의
-1. 발해
-2. 백제
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2, 백제</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>17관등제
-1. 통일신라
-2. 백제
-3. 신라</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>상대등
-1. 발해
-2. 신라
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>골품 제도
-1. 발해
-2. 신라
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>화백 회의
-1. 신라
-2. 통일신라
-3. 발해</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>9주 5소경
-1. 신라
-2. 백제
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3, 통일신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>9서당 10정
-1. 발해
-2. 통일신라
-3. 신라</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 통일신라</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>5경 15부 62주
-1. 고구려
-2. 발해
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2, 발해</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>부 - 도독
-주 - 자사
-1. 발해
-2. 고구려
-3. 통일신라</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 발해</t>
+2. 고려
+3. 신라</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 고려</t>
         </is>
       </c>
     </row>
